--- a/addrs.xlsx
+++ b/addrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasha/Desktop/calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A126E6D2-C3FD-1944-A15A-94461EB09969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB28F7CD-2438-5F44-AF33-BE035B8B7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{BAFF03D4-D902-DC45-A326-29514C8E8CD4}"/>
   </bookViews>
@@ -402,17 +402,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6075042-3EFF-0745-88EC-00B79636921E}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -435,11 +435,6 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1433</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addrs.xlsx
+++ b/addrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pasha/Desktop/calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB28F7CD-2438-5F44-AF33-BE035B8B7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7812CFF6-FC8B-1743-97BD-D9B79534FDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{BAFF03D4-D902-DC45-A326-29514C8E8CD4}"/>
   </bookViews>
@@ -402,17 +402,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6075042-3EFF-0745-88EC-00B79636921E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -433,6 +433,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1443</v>
       </c>
     </row>
   </sheetData>
